--- a/public/uploads/excel/Template.xlsx
+++ b/public/uploads/excel/Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2024\Tugas Akhir\Laravel\Pengambangan-Siakad\public\uploads\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD3F0BA5-841D-43B9-AF7D-830C523C4A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29021E23-8844-4A51-B047-2CCB393949F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{7D3F7076-1851-4C67-A66F-5A61E1A549CC}"/>
+    <workbookView xWindow="0" yWindow="1065" windowWidth="18000" windowHeight="9480" xr2:uid="{7D3F7076-1851-4C67-A66F-5A61E1A549CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Lembar1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>Achmad Fachri Azmi Dwinika Adi</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>Wiraswasta</t>
+  </si>
+  <si>
+    <t>tahun_masuk</t>
   </si>
 </sst>
 </file>
@@ -140,9 +143,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="174" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="175" formatCode="&quot;Laki-Laki&quot;;&quot;Perempuan&quot;"/>
-    <numFmt numFmtId="176" formatCode="&quot;Laki-Laki&quot;;&quot;Laki-Laki&quot;;&quot;Perempuan&quot;"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="165" formatCode="&quot;Laki-Laki&quot;;&quot;Perempuan&quot;"/>
+    <numFmt numFmtId="166" formatCode="&quot;Laki-Laki&quot;;&quot;Laki-Laki&quot;;&quot;Perempuan&quot;"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -208,20 +211,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="175" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Keluaran" xfId="1" builtinId="21"/>
@@ -538,100 +541,102 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED6685D-AABB-4F3A-918B-4457AFB0DA8B}">
   <sheetPr codeName="Lembar1"/>
-  <dimension ref="A1:V5"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="12" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="35.7109375" customWidth="1"/>
     <col min="5" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="3" customWidth="1"/>
     <col min="9" max="22" width="15.7109375" customWidth="1"/>
     <col min="23" max="23" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="U1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="V1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="W1" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C2">
@@ -646,10 +651,10 @@
       <c r="F2" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <v>37678</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I2" t="s">
@@ -658,67 +663,49 @@
       <c r="J2" t="s">
         <v>28</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="10">
+        <v>2020</v>
+      </c>
+      <c r="L2" t="s">
         <v>29</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="N2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>28</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>32</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="R2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>28</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>34</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>35</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="V2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B3" s="2"/>
-      <c r="H3" s="5"/>
-      <c r="M3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="U3" s="11"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
-      <c r="H4" s="5"/>
-      <c r="M4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="U4" s="11"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
-      <c r="H5" s="5"/>
-      <c r="M5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="U5" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="H8:H1048576 H1:H5">
+  <conditionalFormatting sqref="H1:H1048576">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="formula" val="&quot;Laki-Laki&quot;"/>
@@ -733,6 +720,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -749,7 +737,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H8:H1048576 H1:H5</xm:sqref>
+          <xm:sqref>H1:H1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
